--- a/заказ2.xlsx
+++ b/заказ2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
   <si>
     <t>Номер задания</t>
   </si>
@@ -109,10 +109,10 @@
     <t>22 ч 06 мин</t>
   </si>
   <si>
-    <t>10888119430</t>
-  </si>
-  <si>
-    <t>19:32:35 11.04.2023</t>
+    <t>10887090042</t>
+  </si>
+  <si>
+    <t>13:18:03 11.04.2023</t>
   </si>
   <si>
     <t>Значки аниме Дарованный, Given. Маленькие 37 мм</t>
@@ -121,19 +121,13 @@
     <t>132189818</t>
   </si>
   <si>
-    <t>GIVEN-6NEW-NABOR37</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9 ч 27 мин</t>
-  </si>
-  <si>
-    <t>10887090042</t>
-  </si>
-  <si>
-    <t>13:18:03 11.04.2023</t>
+    <t>AHEGAOS-12NEW-1-37</t>
   </si>
   <si>
     <t>15 ч 42 мин</t>
+  </si>
+  <si>
+    <t>CATSSHARKSNABOR-11NEW-6-44</t>
   </si>
 </sst>
 </file>
@@ -141,12 +135,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +155,26 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="MS Shell Dlg 2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -176,91 +190,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,6 +266,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -283,22 +283,22 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -306,7 +306,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,31 +327,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,151 +507,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,17 +536,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,17 +562,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -592,26 +577,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,158 +618,176 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1108,7 +1111,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="$A5:$XFD156"/>
+      <selection activeCell="A3" sqref="$A3:$XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
@@ -1241,7 +1244,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>767249263</v>
+        <v>766592075</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -1273,7 +1276,7 @@
       <c r="K3" t="s">
         <v>34</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="M3" t="s">
@@ -1303,10 +1306,10 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
@@ -1329,8 +1332,8 @@
       <c r="K4" t="s">
         <v>34</v>
       </c>
-      <c r="L4" t="s">
-        <v>35</v>
+      <c r="L4" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="M4" t="s">
         <v>28</v>
@@ -1348,7 +1351,7 @@
         <v>21</v>
       </c>
       <c r="R4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/заказ2.xlsx
+++ b/заказ2.xlsx
@@ -121,7 +121,7 @@
     <t>132189818</t>
   </si>
   <si>
-    <t>AHEGAOS-12NEW-1-37</t>
+    <t>BLACKNABOR-12NEW-10-25</t>
   </si>
   <si>
     <t>15 ч 42 мин</t>
@@ -135,8 +135,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
@@ -162,68 +162,122 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -235,78 +289,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,19 +327,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,163 +507,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,6 +536,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -543,21 +582,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,21 +610,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -610,181 +619,175 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1111,7 +1114,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD4"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
@@ -1332,7 +1335,7 @@
       <c r="K4" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="3" t="s">
         <v>37</v>
       </c>
       <c r="M4" t="s">

--- a/заказ2.xlsx
+++ b/заказ2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machine05\PycharmProjects\Badge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PyCharm\Badge2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8B03C1-657A-45DB-AC9C-F7AAAF0A095C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12495"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Сборочные задания" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="40">
   <si>
     <t>Номер задания</t>
   </si>
@@ -135,14 +136,17 @@
     <t>13KARTNABOR-12NEW-6-44</t>
   </si>
   <si>
-    <t>BARBIENABOR-12NEW-5-25</t>
+    <t>EDDSWORLD--12NEW-1-44</t>
+  </si>
+  <si>
+    <t>ANGELSFRIENDS-13NEW-1-37</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +165,11 @@
       <color rgb="FF000000"/>
       <name val="MS Shell Dlg 2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="MS Shell Dlg 2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -204,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -214,6 +223,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -489,11 +501,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="M11" sqref="M11:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -770,7 +782,7 @@
       <c r="K5" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="4" t="s">
         <v>38</v>
       </c>
       <c r="M5" t="s">
@@ -789,10 +801,67 @@
         <v>21</v>
       </c>
       <c r="R5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6">
+        <v>766592075</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6">
+        <v>238</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R6" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/заказ2.xlsx
+++ b/заказ2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PyCharm\Badge2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8B03C1-657A-45DB-AC9C-F7AAAF0A095C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C9E4CF-9A35-4842-A333-3415AEC6CF14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -127,9 +127,6 @@
     <t>15 ч 42 мин</t>
   </si>
   <si>
-    <t>13CARDS_ZONTIK-13NEW-6-37</t>
-  </si>
-  <si>
     <t>13CARDS_ZONTIK-13NEW-6-56</t>
   </si>
   <si>
@@ -139,7 +136,10 @@
     <t>EDDSWORLD--12NEW-1-44</t>
   </si>
   <si>
-    <t>ANGELSFRIENDS-13NEW-1-37</t>
+    <t>3ACLASS-13-NEW-30-37</t>
+  </si>
+  <si>
+    <t>$uicideboys-13NEW-6-37</t>
   </si>
 </sst>
 </file>
@@ -505,7 +505,7 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11:N11"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -615,7 +615,7 @@
         <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
         <v>27</v>
@@ -671,7 +671,7 @@
         <v>33</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M3" t="s">
         <v>27</v>
@@ -727,7 +727,7 @@
         <v>33</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M4" t="s">
         <v>27</v>
@@ -783,7 +783,7 @@
         <v>33</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M5" t="s">
         <v>27</v>
@@ -839,7 +839,7 @@
         <v>33</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M6" t="s">
         <v>27</v>

--- a/заказ2.xlsx
+++ b/заказ2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PyCharm\Badge2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C9E4CF-9A35-4842-A333-3415AEC6CF14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA0FA1A-7C7C-42FB-B5E0-4792BD420DF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="42">
   <si>
     <t>Номер задания</t>
   </si>
@@ -140,6 +140,12 @@
   </si>
   <si>
     <t>$uicideboys-13NEW-6-37</t>
+  </si>
+  <si>
+    <t>EDDSWORLD--12NEW-1-22</t>
+  </si>
+  <si>
+    <t>POSTER-3ACLASS-13-NEW-30-37</t>
   </si>
 </sst>
 </file>
@@ -502,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -860,6 +866,118 @@
         <v>34</v>
       </c>
     </row>
+    <row r="7" spans="1:18">
+      <c r="A7">
+        <v>766592075</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7">
+        <v>238</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8">
+        <v>766592075</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8">
+        <v>238</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
